--- a/GiffordsScorecard.xlsx
+++ b/GiffordsScorecard.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nao/Documents/GitHub/DATA608/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5EB73D5D-C9CA-174A-86A3-7AE50473A433}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABD755C0-96B8-724D-B829-7B17933FA72A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16940" xr2:uid="{52EF1C54-DC31-704E-8A9A-A19797100A53}"/>
+    <workbookView xWindow="2920" yWindow="500" windowWidth="25720" windowHeight="16940" xr2:uid="{52EF1C54-DC31-704E-8A9A-A19797100A53}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -227,50 +227,20 @@
     <t>Wyoming</t>
   </si>
   <si>
-    <r>
-      <t>Gun Death Rate</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Ringside Condensed SSm A"/>
-      </rPr>
-      <t>(Ranked)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Gun Death Rate</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Ringside Condensed SSm A"/>
-      </rPr>
-      <t>(per 100K)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Gun Law Strength </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Ringside Condensed SSm A"/>
-      </rPr>
-      <t>(Ranked)</t>
-    </r>
+    <t>Gun Law Strength (Ranked)</t>
+  </si>
+  <si>
+    <t>Gun Death Rate(Ranked)</t>
+  </si>
+  <si>
+    <t>Gun Death Rate(per 100K)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -279,9 +249,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="14"/>
+      <sz val="12"/>
       <color theme="1"/>
-      <name val="Ringside Condensed SSm A"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -304,8 +275,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -643,36 +615,36 @@
   <dimension ref="A1:E51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="35.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="34.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="18">
-      <c r="A1" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>63</v>
-      </c>
-      <c r="E1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -689,7 +661,7 @@
         <v>8.6999999999999993</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>3</v>
       </c>
@@ -706,7 +678,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2</v>
       </c>
@@ -723,7 +695,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>10</v>
       </c>
@@ -740,7 +712,7 @@
         <v>17.3</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>6</v>
       </c>
@@ -757,7 +729,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>4</v>
       </c>
@@ -774,7 +746,7 @@
         <v>14.4</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>8</v>
       </c>
@@ -791,7 +763,7 @@
         <v>13.6</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>7</v>
       </c>
@@ -808,7 +780,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>5</v>
       </c>
@@ -825,7 +797,7 @@
         <v>5.3</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>11</v>
       </c>
@@ -842,7 +814,7 @@
         <v>14.6</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>9</v>
       </c>
@@ -859,7 +831,7 @@
         <v>12.6</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>13</v>
       </c>
@@ -876,7 +848,7 @@
         <v>12.1</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>12</v>
       </c>
@@ -893,7 +865,7 @@
         <v>3.1</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
@@ -910,7 +882,7 @@
         <v>15.1</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
@@ -927,7 +899,7 @@
         <v>9.6999999999999993</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
@@ -944,7 +916,7 @@
         <v>14.8</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>17</v>
       </c>
@@ -961,7 +933,7 @@
         <v>15.1</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>19</v>
       </c>
@@ -978,7 +950,7 @@
         <v>19.3</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>18</v>
       </c>
@@ -995,7 +967,7 @@
         <v>12.2</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1012,7 +984,7 @@
         <v>27.5</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1029,7 +1001,7 @@
         <v>14.1</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>23</v>
       </c>
@@ -1046,7 +1018,7 @@
         <v>12.3</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>22</v>
       </c>
@@ -1063,7 +1035,7 @@
         <v>17.100000000000001</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1080,7 +1052,7 @@
         <v>14.4</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1097,7 +1069,7 @@
         <v>17.600000000000001</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>27</v>
       </c>
@@ -1114,7 +1086,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>28</v>
       </c>
@@ -1131,7 +1103,7 @@
         <v>10.3</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>25</v>
       </c>
@@ -1148,7 +1120,7 @@
         <v>15.7</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>28</v>
       </c>
@@ -1165,7 +1137,7 @@
         <v>21.3</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>35</v>
       </c>
@@ -1182,7 +1154,7 @@
         <v>25.9</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>40</v>
       </c>
@@ -1199,7 +1171,7 @@
         <v>22.7</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>41</v>
       </c>
@@ -1216,7 +1188,7 @@
         <v>20.5</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>48</v>
       </c>
@@ -1233,7 +1205,7 @@
         <v>22.1</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>33</v>
       </c>
@@ -1250,7 +1222,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>46</v>
       </c>
@@ -1267,7 +1239,7 @@
         <v>17.5</v>
       </c>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>34</v>
       </c>
@@ -1284,7 +1256,7 @@
         <v>11.3</v>
       </c>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>42</v>
       </c>
@@ -1301,7 +1273,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="39" spans="1:5">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>47</v>
       </c>
@@ -1318,7 +1290,7 @@
         <v>18.899999999999999</v>
       </c>
     </row>
-    <row r="40" spans="1:5">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>32</v>
       </c>
@@ -1335,7 +1307,7 @@
         <v>28.2</v>
       </c>
     </row>
-    <row r="41" spans="1:5">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>44</v>
       </c>
@@ -1352,7 +1324,7 @@
         <v>29.7</v>
       </c>
     </row>
-    <row r="42" spans="1:5">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>48</v>
       </c>
@@ -1369,7 +1341,7 @@
         <v>24.4</v>
       </c>
     </row>
-    <row r="43" spans="1:5">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>45</v>
       </c>
@@ -1386,7 +1358,7 @@
         <v>24.5</v>
       </c>
     </row>
-    <row r="44" spans="1:5">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>35</v>
       </c>
@@ -1403,7 +1375,7 @@
         <v>16.5</v>
       </c>
     </row>
-    <row r="45" spans="1:5">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>35</v>
       </c>
@@ -1420,7 +1392,7 @@
         <v>20.100000000000001</v>
       </c>
     </row>
-    <row r="46" spans="1:5">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>43</v>
       </c>
@@ -1437,7 +1409,7 @@
         <v>16.100000000000001</v>
       </c>
     </row>
-    <row r="47" spans="1:5">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>39</v>
       </c>
@@ -1454,7 +1426,7 @@
         <v>20.9</v>
       </c>
     </row>
-    <row r="48" spans="1:5">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>31</v>
       </c>
@@ -1471,7 +1443,7 @@
         <v>15.7</v>
       </c>
     </row>
-    <row r="49" spans="1:5">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>30</v>
       </c>
@@ -1488,7 +1460,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="50" spans="1:5">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>35</v>
       </c>
@@ -1505,7 +1477,7 @@
         <v>16.399999999999999</v>
       </c>
     </row>
-    <row r="51" spans="1:5">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>50</v>
       </c>
